--- a/Code/Results/Cases/Case_0_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_254/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3033420872970112</v>
+        <v>0.4194661000590827</v>
       </c>
       <c r="D2">
-        <v>0.1362669783228938</v>
+        <v>0.1460379270627357</v>
       </c>
       <c r="E2">
-        <v>0.1055323115604843</v>
+        <v>0.1781091320592623</v>
       </c>
       <c r="F2">
-        <v>0.88511689083861</v>
+        <v>2.174329429675524</v>
       </c>
       <c r="G2">
-        <v>0.0008191504135854992</v>
+        <v>0.002527297633912596</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1139779670118628</v>
+        <v>0.2500238723567989</v>
       </c>
       <c r="K2">
-        <v>5.073094532491154</v>
+        <v>2.427016312209275</v>
       </c>
       <c r="L2">
-        <v>0.0768063171562261</v>
+        <v>0.15751734721389</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.127038091864677</v>
+        <v>5.737787455203033</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.276070523337097</v>
+        <v>0.4146090802800586</v>
       </c>
       <c r="D3">
-        <v>0.121117831328462</v>
+        <v>0.141939575069145</v>
       </c>
       <c r="E3">
-        <v>0.09746046868170666</v>
+        <v>0.176847842754654</v>
       </c>
       <c r="F3">
-        <v>0.8721000625691602</v>
+        <v>2.193477482288387</v>
       </c>
       <c r="G3">
-        <v>0.0008246006704321629</v>
+        <v>0.002530829917594412</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1091081661116462</v>
+        <v>0.2505612265207162</v>
       </c>
       <c r="K3">
-        <v>4.412991390087257</v>
+        <v>2.224074578064233</v>
       </c>
       <c r="L3">
-        <v>0.07214903323035671</v>
+        <v>0.156918172182575</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.139915986791493</v>
+        <v>5.80596677005181</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2596727592980841</v>
+        <v>0.4118127949235344</v>
       </c>
       <c r="D4">
-        <v>0.1118725796042526</v>
+        <v>0.1394521300044289</v>
       </c>
       <c r="E4">
-        <v>0.09261249567367713</v>
+        <v>0.1761387752546675</v>
       </c>
       <c r="F4">
-        <v>0.8666564434449384</v>
+        <v>2.206589259968581</v>
       </c>
       <c r="G4">
-        <v>0.0008280483008664828</v>
+        <v>0.002533112850521442</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.106310710679054</v>
+        <v>0.2510049405479506</v>
       </c>
       <c r="K4">
-        <v>4.008749045490731</v>
+        <v>2.099446730945488</v>
       </c>
       <c r="L4">
-        <v>0.06935521816322421</v>
+        <v>0.1565955058490829</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.155245345150291</v>
+        <v>5.851666904065496</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2530713939084706</v>
+        <v>0.4107201230695097</v>
       </c>
       <c r="D5">
-        <v>0.1081174562788334</v>
+        <v>0.1384458405265008</v>
       </c>
       <c r="E5">
-        <v>0.09066232246685502</v>
+        <v>0.1758663015528725</v>
       </c>
       <c r="F5">
-        <v>0.8650457687504343</v>
+        <v>2.212272769658362</v>
       </c>
       <c r="G5">
-        <v>0.0008294793254764245</v>
+        <v>0.002534071943388028</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1052165781293013</v>
+        <v>0.2512143815228072</v>
       </c>
       <c r="K5">
-        <v>3.844211060925318</v>
+        <v>2.04865763597104</v>
       </c>
       <c r="L5">
-        <v>0.06823232587382222</v>
+        <v>0.1564754253353478</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.163262940591551</v>
+        <v>5.871253812946748</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2519799455154299</v>
+        <v>0.41054151696855</v>
       </c>
       <c r="D6">
-        <v>0.1074946195194286</v>
+        <v>0.1382791941744301</v>
       </c>
       <c r="E6">
-        <v>0.09033998263065612</v>
+        <v>0.1758220538456285</v>
       </c>
       <c r="F6">
-        <v>0.8648140816597234</v>
+        <v>2.213237059273759</v>
       </c>
       <c r="G6">
-        <v>0.0008297185399829894</v>
+        <v>0.002534232940724301</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1050375951223614</v>
+        <v>0.2512508882676912</v>
       </c>
       <c r="K6">
-        <v>3.816899331990669</v>
+        <v>2.040224099555587</v>
       </c>
       <c r="L6">
-        <v>0.06804678722781787</v>
+        <v>0.1564561761553271</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.164698514930109</v>
+        <v>5.874564373226619</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2595834117903024</v>
+        <v>0.4117978690189688</v>
       </c>
       <c r="D7">
-        <v>0.1118218887940117</v>
+        <v>0.1394385289032982</v>
       </c>
       <c r="E7">
-        <v>0.09258609432905729</v>
+        <v>0.176135033811196</v>
       </c>
       <c r="F7">
-        <v>0.8666323035424881</v>
+        <v>2.206664532120733</v>
       </c>
       <c r="G7">
-        <v>0.00082806749363771</v>
+        <v>0.00253312566868814</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.106295772466126</v>
+        <v>0.251007649226473</v>
       </c>
       <c r="K7">
-        <v>4.006529336067672</v>
+        <v>2.098761776495678</v>
       </c>
       <c r="L7">
-        <v>0.06934001242592913</v>
+        <v>0.1565938401608875</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.155346425826053</v>
+        <v>5.851927159601161</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2938628166429567</v>
+        <v>0.417752852022673</v>
       </c>
       <c r="D8">
-        <v>0.1310307298796261</v>
+        <v>0.1446188524613916</v>
       </c>
       <c r="E8">
-        <v>0.1027255768439446</v>
+        <v>0.1776606949233432</v>
       </c>
       <c r="F8">
-        <v>0.8800790512136771</v>
+        <v>2.180650296483584</v>
       </c>
       <c r="G8">
-        <v>0.0008210090729649699</v>
+        <v>0.002528491937737093</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1122572748624151</v>
+        <v>0.2501855455955067</v>
       </c>
       <c r="K8">
-        <v>4.845224119503655</v>
+        <v>2.357048039619315</v>
       </c>
       <c r="L8">
-        <v>0.07518625369093712</v>
+        <v>0.1573013849201743</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.129878557957255</v>
+        <v>5.760498374719987</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3641525447910965</v>
+        <v>0.4309035307950353</v>
       </c>
       <c r="D9">
-        <v>0.1692357145948762</v>
+        <v>0.155004223730657</v>
       </c>
       <c r="E9">
-        <v>0.1235548565687097</v>
+        <v>0.1811697838586923</v>
       </c>
       <c r="F9">
-        <v>0.9282781374049307</v>
+        <v>2.140401355865592</v>
       </c>
       <c r="G9">
-        <v>0.0008079385235412049</v>
+        <v>0.002520306469526774</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125601744472597</v>
+        <v>0.2494757831218521</v>
       </c>
       <c r="K9">
-        <v>6.502019282832123</v>
+        <v>2.863276980198521</v>
       </c>
       <c r="L9">
-        <v>0.0872183736609955</v>
+        <v>0.1590463962604289</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.1434440025063</v>
+        <v>5.61171647082881</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4181404558966051</v>
+        <v>0.4414616879157904</v>
       </c>
       <c r="D10">
-        <v>0.1977692990419087</v>
+        <v>0.1627694617087485</v>
       </c>
       <c r="E10">
-        <v>0.1395675756100339</v>
+        <v>0.1840618548450053</v>
       </c>
       <c r="F10">
-        <v>0.9794090776785112</v>
+        <v>2.117415147825298</v>
       </c>
       <c r="G10">
-        <v>0.000798758173299984</v>
+        <v>0.002514836359065591</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1366038548777766</v>
+        <v>0.2495042562987422</v>
       </c>
       <c r="K10">
-        <v>7.732345174668183</v>
+        <v>3.234938257745569</v>
       </c>
       <c r="L10">
-        <v>0.09647416138432163</v>
+        <v>0.1605448677652177</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.199048169362953</v>
+        <v>5.521087343268903</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4433266635661539</v>
+        <v>0.4464592838854173</v>
       </c>
       <c r="D11">
-        <v>0.2108846513063014</v>
+        <v>0.1663308121617604</v>
       </c>
       <c r="E11">
-        <v>0.1470387453445987</v>
+        <v>0.185445444384726</v>
       </c>
       <c r="F11">
-        <v>1.00667160067087</v>
+        <v>2.108392809567775</v>
       </c>
       <c r="G11">
-        <v>0.0007946620910424856</v>
+        <v>0.002512464723629098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1419155403515262</v>
+        <v>0.2496366152504592</v>
       </c>
       <c r="K11">
-        <v>8.296301822275723</v>
+        <v>3.403940863204468</v>
       </c>
       <c r="L11">
-        <v>0.1007922473235894</v>
+        <v>0.1612732498738296</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.235944845011801</v>
+        <v>5.483931873297081</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4529647361569573</v>
+        <v>0.4483796823699038</v>
       </c>
       <c r="D12">
-        <v>0.215873605857567</v>
+        <v>0.1676834923502071</v>
       </c>
       <c r="E12">
-        <v>0.149897715274502</v>
+        <v>0.1859791175622334</v>
       </c>
       <c r="F12">
-        <v>1.017624906966745</v>
+        <v>2.105182916610488</v>
       </c>
       <c r="G12">
-        <v>0.000793121498997024</v>
+        <v>0.002511583343160906</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1439753068898995</v>
+        <v>0.2497039011705837</v>
       </c>
       <c r="K12">
-        <v>8.510600092377899</v>
+        <v>3.467925681369991</v>
       </c>
       <c r="L12">
-        <v>0.1024444181311424</v>
+        <v>0.1615557573839865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.251740875991061</v>
+        <v>5.47044913433939</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4508843536584948</v>
+        <v>0.4479648496874233</v>
       </c>
       <c r="D13">
-        <v>0.2147980957148121</v>
+        <v>0.1673919885759432</v>
       </c>
       <c r="E13">
-        <v>0.1492806101658637</v>
+        <v>0.1858637489771162</v>
       </c>
       <c r="F13">
-        <v>1.01523700314506</v>
+        <v>2.105865025828905</v>
       </c>
       <c r="G13">
-        <v>0.0007934528429057307</v>
+        <v>0.002511772422445182</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1435294774670481</v>
+        <v>0.2496886466420918</v>
       </c>
       <c r="K13">
-        <v>8.464412082719491</v>
+        <v>3.454146022907025</v>
       </c>
       <c r="L13">
-        <v>0.1020878113052106</v>
+        <v>0.161494617544605</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.248255159146851</v>
+        <v>5.473326739714594</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.444117514060224</v>
+        <v>0.4466167171233337</v>
       </c>
       <c r="D14">
-        <v>0.2112946273673941</v>
+        <v>0.1664420167932263</v>
       </c>
       <c r="E14">
-        <v>0.1472733395871657</v>
+        <v>0.1854891550443725</v>
       </c>
       <c r="F14">
-        <v>1.007559791239615</v>
+        <v>2.108124585262928</v>
       </c>
       <c r="G14">
-        <v>0.0007945351412357484</v>
+        <v>0.00251239187745611</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1420840040012834</v>
+        <v>0.2496418069356778</v>
       </c>
       <c r="K14">
-        <v>8.31391667565174</v>
+        <v>3.409205206404295</v>
       </c>
       <c r="L14">
-        <v>0.100927822299802</v>
+        <v>0.1612963581480216</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.237206894094641</v>
+        <v>5.4828108617574</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.439986057494707</v>
+        <v>0.4457945805684176</v>
       </c>
       <c r="D15">
-        <v>0.2091516700477314</v>
+        <v>0.1658606597833625</v>
       </c>
       <c r="E15">
-        <v>0.1460478005490877</v>
+        <v>0.1852609725258603</v>
       </c>
       <c r="F15">
-        <v>1.002940953302158</v>
+        <v>2.109535558190714</v>
       </c>
       <c r="G15">
-        <v>0.0007951994166602515</v>
+        <v>0.002512773484961561</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1412050382199013</v>
+        <v>0.2496153514088846</v>
       </c>
       <c r="K15">
-        <v>8.221834205287394</v>
+        <v>3.381675902672271</v>
       </c>
       <c r="L15">
-        <v>0.100219558107888</v>
+        <v>0.1611757881482774</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.230681924328309</v>
+        <v>5.488696684429726</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4165079648678329</v>
+        <v>0.4411389937492345</v>
       </c>
       <c r="D16">
-        <v>0.1969151524814237</v>
+        <v>0.1625372936500753</v>
       </c>
       <c r="E16">
-        <v>0.1390833220420333</v>
+        <v>0.1839727986592337</v>
       </c>
       <c r="F16">
-        <v>0.9777124588345458</v>
+        <v>2.118033675761481</v>
       </c>
       <c r="G16">
-        <v>0.0007990273891573988</v>
+        <v>0.002514993693337266</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1362632498714333</v>
+        <v>0.2494980085677696</v>
       </c>
       <c r="K16">
-        <v>7.695585755803052</v>
+        <v>3.223891912386705</v>
       </c>
       <c r="L16">
-        <v>0.09619425721494679</v>
+        <v>0.160498203554674</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.196883337542516</v>
+        <v>5.523597624778688</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4022726189819821</v>
+        <v>0.4383327422645777</v>
       </c>
       <c r="D17">
-        <v>0.1894451441787481</v>
+        <v>0.1605058603992404</v>
       </c>
       <c r="E17">
-        <v>0.1348607093123455</v>
+        <v>0.183199928894247</v>
       </c>
       <c r="F17">
-        <v>0.9632977135377274</v>
+        <v>2.123614637965971</v>
       </c>
       <c r="G17">
-        <v>0.0008013955483944043</v>
+        <v>0.002516385562315511</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1333130864796601</v>
+        <v>0.2494566009651749</v>
       </c>
       <c r="K17">
-        <v>7.37392986213905</v>
+        <v>3.127076966175537</v>
       </c>
       <c r="L17">
-        <v>0.09375346892981895</v>
+        <v>0.1600944696718614</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.179226974246717</v>
+        <v>5.546052381127481</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3941431457886324</v>
+        <v>0.43673698501334</v>
       </c>
       <c r="D18">
-        <v>0.1851611307613581</v>
+        <v>0.1593401592358106</v>
       </c>
       <c r="E18">
-        <v>0.1324493764440717</v>
+        <v>0.1827617946393438</v>
       </c>
       <c r="F18">
-        <v>0.955379989738617</v>
+        <v>2.126959627755127</v>
       </c>
       <c r="G18">
-        <v>0.000802765256337252</v>
+        <v>0.00251719712223673</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1316448298994501</v>
+        <v>0.2494440238380022</v>
       </c>
       <c r="K18">
-        <v>7.189316118328804</v>
+        <v>3.0713853494604</v>
       </c>
       <c r="L18">
-        <v>0.09235961832430917</v>
+        <v>0.1598666520857321</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.170153423223894</v>
+        <v>5.559350956069665</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3914003587664467</v>
+        <v>0.4361998384448214</v>
       </c>
       <c r="D19">
-        <v>0.1837127037904196</v>
+        <v>0.1589459434893854</v>
       </c>
       <c r="E19">
-        <v>0.1316358445687342</v>
+        <v>0.1826145502308663</v>
       </c>
       <c r="F19">
-        <v>0.9527617248782008</v>
+        <v>2.128115351499389</v>
       </c>
       <c r="G19">
-        <v>0.000803230351624884</v>
+        <v>0.002517473792842056</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1310847760736564</v>
+        <v>0.2494416960117007</v>
       </c>
       <c r="K19">
-        <v>7.126873156354236</v>
+        <v>3.052528149637908</v>
       </c>
       <c r="L19">
-        <v>0.09188936193919517</v>
+        <v>0.1597902735968972</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.167262578787074</v>
+        <v>5.563919388399114</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4037818869875593</v>
+        <v>0.4386295765411603</v>
       </c>
       <c r="D20">
-        <v>0.1902390208331184</v>
+        <v>0.1607218284569711</v>
       </c>
       <c r="E20">
-        <v>0.135308392229426</v>
+        <v>0.183281540090686</v>
       </c>
       <c r="F20">
-        <v>0.9647931815207755</v>
+        <v>2.123006563187786</v>
       </c>
       <c r="G20">
-        <v>0.0008011426736869072</v>
+        <v>0.002516236258394298</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1336241470413029</v>
+        <v>0.2494598456811659</v>
       </c>
       <c r="K20">
-        <v>7.408129010666698</v>
+        <v>3.137383748336674</v>
       </c>
       <c r="L20">
-        <v>0.09401224665001706</v>
+        <v>0.1601369927471268</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.180993466365294</v>
+        <v>5.543622362922235</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4461022804539994</v>
+        <v>0.4470119392302934</v>
       </c>
       <c r="D21">
-        <v>0.212323046197767</v>
+        <v>0.1667209366160165</v>
       </c>
       <c r="E21">
-        <v>0.1478620902228265</v>
+        <v>0.1855989183685551</v>
       </c>
       <c r="F21">
-        <v>1.009797233090424</v>
+        <v>2.107455285434938</v>
       </c>
       <c r="G21">
-        <v>0.0007942169673725297</v>
+        <v>0.002512209475708019</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1425072267985499</v>
+        <v>0.2496550991007993</v>
       </c>
       <c r="K21">
-        <v>8.358099678931978</v>
+        <v>3.422405784868374</v>
       </c>
       <c r="L21">
-        <v>0.1012680647307462</v>
+        <v>0.1613544105730824</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.240401220668758</v>
+        <v>5.48000919470374</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.474353048737072</v>
+        <v>0.452652989248719</v>
       </c>
       <c r="D22">
-        <v>0.2268887199065404</v>
+        <v>0.1706654098594811</v>
       </c>
       <c r="E22">
-        <v>0.1562419090281573</v>
+        <v>0.1871702020679713</v>
       </c>
       <c r="F22">
-        <v>1.042908368977436</v>
+        <v>2.098496463917712</v>
       </c>
       <c r="G22">
-        <v>0.0007897513161909675</v>
+        <v>0.002509675081059729</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.148596888583306</v>
+        <v>0.2498827535496631</v>
       </c>
       <c r="K22">
-        <v>8.983341524360071</v>
+        <v>3.608608181123657</v>
       </c>
       <c r="L22">
-        <v>0.1061100984705945</v>
+        <v>0.1621890136916377</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.289942541629074</v>
+        <v>5.441857916123041</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4592172091722375</v>
+        <v>0.4496273916610107</v>
       </c>
       <c r="D23">
-        <v>0.2191015567905197</v>
+        <v>0.1685580278056449</v>
       </c>
       <c r="E23">
-        <v>0.151752369600441</v>
+        <v>0.1863263983168189</v>
       </c>
       <c r="F23">
-        <v>1.024878777726855</v>
+        <v>2.103167569136843</v>
       </c>
       <c r="G23">
-        <v>0.0007921295224933767</v>
+        <v>0.002511018855364245</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1453192270952641</v>
+        <v>0.2497520978564154</v>
       </c>
       <c r="K23">
-        <v>8.649192688561698</v>
+        <v>3.509236397118002</v>
       </c>
       <c r="L23">
-        <v>0.1035161248255889</v>
+        <v>0.1617400172503949</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.262465717950192</v>
+        <v>5.461906163000094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4030993775829472</v>
+        <v>0.4384953229564132</v>
       </c>
       <c r="D24">
-        <v>0.1898800764235915</v>
+        <v>0.1606241824503343</v>
       </c>
       <c r="E24">
-        <v>0.1351059442187825</v>
+        <v>0.18324462435789</v>
       </c>
       <c r="F24">
-        <v>0.9641159335404268</v>
+        <v>2.123281048875057</v>
       </c>
       <c r="G24">
-        <v>0.0008012569726336802</v>
+        <v>0.002516303723203063</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1334834301872476</v>
+        <v>0.2494583437682749</v>
       </c>
       <c r="K24">
-        <v>7.392666617762757</v>
+        <v>3.132724149751368</v>
       </c>
       <c r="L24">
-        <v>0.09389522410592122</v>
+        <v>0.1601177546859063</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.180191491241004</v>
+        <v>5.544719762412541</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3447620504039719</v>
+        <v>0.427188402545454</v>
       </c>
       <c r="D25">
-        <v>0.1588293463026815</v>
+        <v>0.1521707568785615</v>
       </c>
       <c r="E25">
-        <v>0.1178056624017785</v>
+        <v>0.1801652511716618</v>
       </c>
       <c r="F25">
-        <v>0.9126646877713256</v>
+        <v>2.150135022035059</v>
       </c>
       <c r="G25">
-        <v>0.0008113966028277092</v>
+        <v>0.002522424958301068</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1217959985884036</v>
+        <v>0.2495712065334175</v>
       </c>
       <c r="K25">
-        <v>6.051957794228827</v>
+        <v>2.726368114546801</v>
       </c>
       <c r="L25">
-        <v>0.08389574159456714</v>
+        <v>0.1585362102998005</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.132294387408734</v>
+        <v>5.648691243097062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_254/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4194661000590827</v>
+        <v>0.3033420872971249</v>
       </c>
       <c r="D2">
-        <v>0.1460379270627357</v>
+        <v>0.1362669783227801</v>
       </c>
       <c r="E2">
-        <v>0.1781091320592623</v>
+        <v>0.1055323115605056</v>
       </c>
       <c r="F2">
-        <v>2.174329429675524</v>
+        <v>0.8851168908385887</v>
       </c>
       <c r="G2">
-        <v>0.002527297633912596</v>
+        <v>0.0008191504135867747</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2500238723567989</v>
+        <v>0.1139779670120973</v>
       </c>
       <c r="K2">
-        <v>2.427016312209275</v>
+        <v>5.073094532491211</v>
       </c>
       <c r="L2">
-        <v>0.15751734721389</v>
+        <v>0.07680631715611241</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.737787455203033</v>
+        <v>2.127038091864563</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4146090802800586</v>
+        <v>0.2760705233371965</v>
       </c>
       <c r="D3">
-        <v>0.141939575069145</v>
+        <v>0.1211178313284051</v>
       </c>
       <c r="E3">
-        <v>0.176847842754654</v>
+        <v>0.09746046868169955</v>
       </c>
       <c r="F3">
-        <v>2.193477482288387</v>
+        <v>0.8721000625691602</v>
       </c>
       <c r="G3">
-        <v>0.002530829917594412</v>
+        <v>0.0008246006704899185</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2505612265207162</v>
+        <v>0.1091081661117386</v>
       </c>
       <c r="K3">
-        <v>2.224074578064233</v>
+        <v>4.412991390087257</v>
       </c>
       <c r="L3">
-        <v>0.156918172182575</v>
+        <v>0.07214903323039223</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.80596677005181</v>
+        <v>2.139915986791522</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4118127949235344</v>
+        <v>0.259672759298482</v>
       </c>
       <c r="D4">
-        <v>0.1394521300044289</v>
+        <v>0.111872579604352</v>
       </c>
       <c r="E4">
-        <v>0.1761387752546675</v>
+        <v>0.09261249567367713</v>
       </c>
       <c r="F4">
-        <v>2.206589259968581</v>
+        <v>0.8666564434449242</v>
       </c>
       <c r="G4">
-        <v>0.002533112850521442</v>
+        <v>0.0008280483008461478</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2510049405479506</v>
+        <v>0.1063107106789971</v>
       </c>
       <c r="K4">
-        <v>2.099446730945488</v>
+        <v>4.008749045490674</v>
       </c>
       <c r="L4">
-        <v>0.1565955058490829</v>
+        <v>0.0693552181631496</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.851666904065496</v>
+        <v>2.155245345150234</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4107201230695097</v>
+        <v>0.25307139390857</v>
       </c>
       <c r="D5">
-        <v>0.1384458405265008</v>
+        <v>0.1081174562785492</v>
       </c>
       <c r="E5">
-        <v>0.1758663015528725</v>
+        <v>0.09066232246685502</v>
       </c>
       <c r="F5">
-        <v>2.212272769658362</v>
+        <v>0.8650457687504343</v>
       </c>
       <c r="G5">
-        <v>0.002534071943388028</v>
+        <v>0.000829479325476745</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2512143815228072</v>
+        <v>0.1052165781292729</v>
       </c>
       <c r="K5">
-        <v>2.04865763597104</v>
+        <v>3.844211060925431</v>
       </c>
       <c r="L5">
-        <v>0.1564754253353478</v>
+        <v>0.06823232587382577</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.871253812946748</v>
+        <v>2.163262940591551</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.41054151696855</v>
+        <v>0.251979945515231</v>
       </c>
       <c r="D6">
-        <v>0.1382791941744301</v>
+        <v>0.1074946195193718</v>
       </c>
       <c r="E6">
-        <v>0.1758220538456285</v>
+        <v>0.09033998263067389</v>
       </c>
       <c r="F6">
-        <v>2.213237059273759</v>
+        <v>0.8648140816597163</v>
       </c>
       <c r="G6">
-        <v>0.002534232940724301</v>
+        <v>0.0008297185399841547</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2512508882676912</v>
+        <v>0.1050375951224041</v>
       </c>
       <c r="K6">
-        <v>2.040224099555587</v>
+        <v>3.816899331990498</v>
       </c>
       <c r="L6">
-        <v>0.1564561761553271</v>
+        <v>0.06804678722782853</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.874564373226619</v>
+        <v>2.164698514930024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4117978690189688</v>
+        <v>0.2595834117906577</v>
       </c>
       <c r="D7">
-        <v>0.1394385289032982</v>
+        <v>0.111821888793898</v>
       </c>
       <c r="E7">
-        <v>0.176135033811196</v>
+        <v>0.09258609432905018</v>
       </c>
       <c r="F7">
-        <v>2.206664532120733</v>
+        <v>0.866632303542481</v>
       </c>
       <c r="G7">
-        <v>0.00253312566868814</v>
+        <v>0.0008280674936607889</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.251007649226473</v>
+        <v>0.1062957724660833</v>
       </c>
       <c r="K7">
-        <v>2.098761776495678</v>
+        <v>4.006529336067501</v>
       </c>
       <c r="L7">
-        <v>0.1565938401608875</v>
+        <v>0.06934001242589005</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.851927159601161</v>
+        <v>2.155346425825968</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.417752852022673</v>
+        <v>0.2938628166429567</v>
       </c>
       <c r="D8">
-        <v>0.1446188524613916</v>
+        <v>0.1310307298797397</v>
       </c>
       <c r="E8">
-        <v>0.1776606949233432</v>
+        <v>0.1027255768439446</v>
       </c>
       <c r="F8">
-        <v>2.180650296483584</v>
+        <v>0.8800790512136771</v>
       </c>
       <c r="G8">
-        <v>0.002528491937737093</v>
+        <v>0.0008210090729421725</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2501855455955067</v>
+        <v>0.1122572748624506</v>
       </c>
       <c r="K8">
-        <v>2.357048039619315</v>
+        <v>4.845224119503769</v>
       </c>
       <c r="L8">
-        <v>0.1573013849201743</v>
+        <v>0.07518625369100107</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.760498374719987</v>
+        <v>2.129878557957284</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4309035307950353</v>
+        <v>0.3641525447912102</v>
       </c>
       <c r="D9">
-        <v>0.155004223730657</v>
+        <v>0.1692357145948193</v>
       </c>
       <c r="E9">
-        <v>0.1811697838586923</v>
+        <v>0.1235548565687346</v>
       </c>
       <c r="F9">
-        <v>2.140401355865592</v>
+        <v>0.9282781374049307</v>
       </c>
       <c r="G9">
-        <v>0.002520306469526774</v>
+        <v>0.0008079385235368195</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2494757831218521</v>
+        <v>0.1256017444725472</v>
       </c>
       <c r="K9">
-        <v>2.863276980198521</v>
+        <v>6.502019282832066</v>
       </c>
       <c r="L9">
-        <v>0.1590463962604289</v>
+        <v>0.08721837366112339</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.61171647082881</v>
+        <v>2.143444002506186</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4414616879157904</v>
+        <v>0.4181404558966051</v>
       </c>
       <c r="D10">
-        <v>0.1627694617087485</v>
+        <v>0.1977692990421076</v>
       </c>
       <c r="E10">
-        <v>0.1840618548450053</v>
+        <v>0.139567575610041</v>
       </c>
       <c r="F10">
-        <v>2.117415147825298</v>
+        <v>0.9794090776785396</v>
       </c>
       <c r="G10">
-        <v>0.002514836359065591</v>
+        <v>0.0007987581732985792</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2495042562987422</v>
+        <v>0.1366038548777482</v>
       </c>
       <c r="K10">
-        <v>3.234938257745569</v>
+        <v>7.732345174668183</v>
       </c>
       <c r="L10">
-        <v>0.1605448677652177</v>
+        <v>0.09647416138435005</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.521087343268903</v>
+        <v>2.199048169362982</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4464592838854173</v>
+        <v>0.443326663566296</v>
       </c>
       <c r="D11">
-        <v>0.1663308121617604</v>
+        <v>0.2108846513062304</v>
       </c>
       <c r="E11">
-        <v>0.185445444384726</v>
+        <v>0.1470387453446094</v>
       </c>
       <c r="F11">
-        <v>2.108392809567775</v>
+        <v>1.006671600670856</v>
       </c>
       <c r="G11">
-        <v>0.002512464723629098</v>
+        <v>0.0007946620910991995</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2496366152504592</v>
+        <v>0.1419155403515688</v>
       </c>
       <c r="K11">
-        <v>3.403940863204468</v>
+        <v>8.296301822275836</v>
       </c>
       <c r="L11">
-        <v>0.1612732498738296</v>
+        <v>0.1007922473236817</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.483931873297081</v>
+        <v>2.235944845011772</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4483796823699038</v>
+        <v>0.4529647361569289</v>
       </c>
       <c r="D12">
-        <v>0.1676834923502071</v>
+        <v>0.215873605857567</v>
       </c>
       <c r="E12">
-        <v>0.1859791175622334</v>
+        <v>0.1498977152744878</v>
       </c>
       <c r="F12">
-        <v>2.105182916610488</v>
+        <v>1.017624906966759</v>
       </c>
       <c r="G12">
-        <v>0.002511583343160906</v>
+        <v>0.0007931214989966598</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2497039011705837</v>
+        <v>0.1439753068899279</v>
       </c>
       <c r="K12">
-        <v>3.467925681369991</v>
+        <v>8.510600092377899</v>
       </c>
       <c r="L12">
-        <v>0.1615557573839865</v>
+        <v>0.1024444181310713</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.47044913433939</v>
+        <v>2.251740875991061</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4479648496874233</v>
+        <v>0.4508843536584664</v>
       </c>
       <c r="D13">
-        <v>0.1673919885759432</v>
+        <v>0.2147980957147553</v>
       </c>
       <c r="E13">
-        <v>0.1858637489771162</v>
+        <v>0.1492806101658566</v>
       </c>
       <c r="F13">
-        <v>2.105865025828905</v>
+        <v>1.015237003145046</v>
       </c>
       <c r="G13">
-        <v>0.002511772422445182</v>
+        <v>0.0007934528429341022</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2496886466420918</v>
+        <v>0.1435294774669913</v>
       </c>
       <c r="K13">
-        <v>3.454146022907025</v>
+        <v>8.464412082719605</v>
       </c>
       <c r="L13">
-        <v>0.161494617544605</v>
+        <v>0.1020878113051893</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.473326739714594</v>
+        <v>2.248255159146851</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4466167171233337</v>
+        <v>0.4441175140602809</v>
       </c>
       <c r="D14">
-        <v>0.1664420167932263</v>
+        <v>0.2112946273676215</v>
       </c>
       <c r="E14">
-        <v>0.1854891550443725</v>
+        <v>0.1472733395871693</v>
       </c>
       <c r="F14">
-        <v>2.108124585262928</v>
+        <v>1.007559791239629</v>
       </c>
       <c r="G14">
-        <v>0.00251239187745611</v>
+        <v>0.0007945351412367256</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2496418069356778</v>
+        <v>0.142084004001255</v>
       </c>
       <c r="K14">
-        <v>3.409205206404295</v>
+        <v>8.31391667565174</v>
       </c>
       <c r="L14">
-        <v>0.1612963581480216</v>
+        <v>0.1009278222999086</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.4828108617574</v>
+        <v>2.237206894094641</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4457945805684176</v>
+        <v>0.4399860574944796</v>
       </c>
       <c r="D15">
-        <v>0.1658606597833625</v>
+        <v>0.2091516700478024</v>
       </c>
       <c r="E15">
-        <v>0.1852609725258603</v>
+        <v>0.1460478005490877</v>
       </c>
       <c r="F15">
-        <v>2.109535558190714</v>
+        <v>1.002940953302144</v>
       </c>
       <c r="G15">
-        <v>0.002512773484961561</v>
+        <v>0.0007951994167189141</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2496153514088846</v>
+        <v>0.1412050382198942</v>
       </c>
       <c r="K15">
-        <v>3.381675902672271</v>
+        <v>8.221834205287394</v>
       </c>
       <c r="L15">
-        <v>0.1611757881482774</v>
+        <v>0.100219558107824</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.488696684429726</v>
+        <v>2.230681924328252</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4411389937492345</v>
+        <v>0.4165079648676056</v>
       </c>
       <c r="D16">
-        <v>0.1625372936500753</v>
+        <v>0.1969151524814095</v>
       </c>
       <c r="E16">
-        <v>0.1839727986592337</v>
+        <v>0.1390833220420014</v>
       </c>
       <c r="F16">
-        <v>2.118033675761481</v>
+        <v>0.9777124588345458</v>
       </c>
       <c r="G16">
-        <v>0.002514993693337266</v>
+        <v>0.0007990273891268496</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2494980085677696</v>
+        <v>0.1362632498714191</v>
       </c>
       <c r="K16">
-        <v>3.223891912386705</v>
+        <v>7.695585755803108</v>
       </c>
       <c r="L16">
-        <v>0.160498203554674</v>
+        <v>0.09619425721494679</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.523597624778688</v>
+        <v>2.196883337542573</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4383327422645777</v>
+        <v>0.4022726189823231</v>
       </c>
       <c r="D17">
-        <v>0.1605058603992404</v>
+        <v>0.1894451441786202</v>
       </c>
       <c r="E17">
-        <v>0.183199928894247</v>
+        <v>0.1348607093123206</v>
       </c>
       <c r="F17">
-        <v>2.123614637965971</v>
+        <v>0.9632977135377132</v>
       </c>
       <c r="G17">
-        <v>0.002516385562315511</v>
+        <v>0.0008013955483348546</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2494566009651749</v>
+        <v>0.1333130864796601</v>
       </c>
       <c r="K17">
-        <v>3.127076966175537</v>
+        <v>7.373929862139107</v>
       </c>
       <c r="L17">
-        <v>0.1600944696718614</v>
+        <v>0.09375346892985448</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.546052381127481</v>
+        <v>2.179226974246774</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.43673698501334</v>
+        <v>0.3941431457886608</v>
       </c>
       <c r="D18">
-        <v>0.1593401592358106</v>
+        <v>0.1851611307614291</v>
       </c>
       <c r="E18">
-        <v>0.1827617946393438</v>
+        <v>0.1324493764440753</v>
       </c>
       <c r="F18">
-        <v>2.126959627755127</v>
+        <v>0.955379989738617</v>
       </c>
       <c r="G18">
-        <v>0.00251719712223673</v>
+        <v>0.0008027652563102427</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2494440238380022</v>
+        <v>0.131644829899372</v>
       </c>
       <c r="K18">
-        <v>3.0713853494604</v>
+        <v>7.189316118328634</v>
       </c>
       <c r="L18">
-        <v>0.1598666520857321</v>
+        <v>0.09235961832429496</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.559350956069665</v>
+        <v>2.170153423223809</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4361998384448214</v>
+        <v>0.3914003587663046</v>
       </c>
       <c r="D19">
-        <v>0.1589459434893854</v>
+        <v>0.1837127037904196</v>
       </c>
       <c r="E19">
-        <v>0.1826145502308663</v>
+        <v>0.1316358445687236</v>
       </c>
       <c r="F19">
-        <v>2.128115351499389</v>
+        <v>0.9527617248782008</v>
       </c>
       <c r="G19">
-        <v>0.002517473792842056</v>
+        <v>0.000803230351680477</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2494416960117007</v>
+        <v>0.1310847760736991</v>
       </c>
       <c r="K19">
-        <v>3.052528149637908</v>
+        <v>7.126873156354293</v>
       </c>
       <c r="L19">
-        <v>0.1597902735968972</v>
+        <v>0.09188936193921649</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.563919388399114</v>
+        <v>2.167262578787074</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4386295765411603</v>
+        <v>0.4037818869878151</v>
       </c>
       <c r="D20">
-        <v>0.1607218284569711</v>
+        <v>0.1902390208333031</v>
       </c>
       <c r="E20">
-        <v>0.183281540090686</v>
+        <v>0.1353083922294473</v>
       </c>
       <c r="F20">
-        <v>2.123006563187786</v>
+        <v>0.9647931815207755</v>
       </c>
       <c r="G20">
-        <v>0.002516236258394298</v>
+        <v>0.0008011426737420644</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2494598456811659</v>
+        <v>0.133624147041246</v>
       </c>
       <c r="K20">
-        <v>3.137383748336674</v>
+        <v>7.408129010666698</v>
       </c>
       <c r="L20">
-        <v>0.1601369927471268</v>
+        <v>0.09401224664998153</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.543622362922235</v>
+        <v>2.180993466365209</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4470119392302934</v>
+        <v>0.4461022804539709</v>
       </c>
       <c r="D21">
-        <v>0.1667209366160165</v>
+        <v>0.2123230461975965</v>
       </c>
       <c r="E21">
-        <v>0.1855989183685551</v>
+        <v>0.1478620902228265</v>
       </c>
       <c r="F21">
-        <v>2.107455285434938</v>
+        <v>1.009797233090438</v>
       </c>
       <c r="G21">
-        <v>0.002512209475708019</v>
+        <v>0.0007942169673995464</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2496550991007993</v>
+        <v>0.1425072267985001</v>
       </c>
       <c r="K21">
-        <v>3.422405784868374</v>
+        <v>8.358099678932092</v>
       </c>
       <c r="L21">
-        <v>0.1613544105730824</v>
+        <v>0.1012680647307391</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.48000919470374</v>
+        <v>2.240401220668815</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.452652989248719</v>
+        <v>0.4743530487371004</v>
       </c>
       <c r="D22">
-        <v>0.1706654098594811</v>
+        <v>0.2268887199065261</v>
       </c>
       <c r="E22">
-        <v>0.1871702020679713</v>
+        <v>0.1562419090281537</v>
       </c>
       <c r="F22">
-        <v>2.098496463917712</v>
+        <v>1.042908368977422</v>
       </c>
       <c r="G22">
-        <v>0.002509675081059729</v>
+        <v>0.0007897513161902848</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2498827535496631</v>
+        <v>0.148596888583242</v>
       </c>
       <c r="K22">
-        <v>3.608608181123657</v>
+        <v>8.983341524359901</v>
       </c>
       <c r="L22">
-        <v>0.1621890136916377</v>
+        <v>0.1061100984706798</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.441857916123041</v>
+        <v>2.289942541629102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4496273916610107</v>
+        <v>0.459217209171868</v>
       </c>
       <c r="D23">
-        <v>0.1685580278056449</v>
+        <v>0.2191015567907328</v>
       </c>
       <c r="E23">
-        <v>0.1863263983168189</v>
+        <v>0.1517523696004695</v>
       </c>
       <c r="F23">
-        <v>2.103167569136843</v>
+        <v>1.024878777726855</v>
       </c>
       <c r="G23">
-        <v>0.002511018855364245</v>
+        <v>0.0007921295224632167</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2497520978564154</v>
+        <v>0.1453192270952073</v>
       </c>
       <c r="K23">
-        <v>3.509236397118002</v>
+        <v>8.649192688561641</v>
       </c>
       <c r="L23">
-        <v>0.1617400172503949</v>
+        <v>0.1035161248256173</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.461906163000094</v>
+        <v>2.262465717950164</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4384953229564132</v>
+        <v>0.403099377582862</v>
       </c>
       <c r="D24">
-        <v>0.1606241824503343</v>
+        <v>0.1898800764236199</v>
       </c>
       <c r="E24">
-        <v>0.18324462435789</v>
+        <v>0.1351059442188323</v>
       </c>
       <c r="F24">
-        <v>2.123281048875057</v>
+        <v>0.9641159335404268</v>
       </c>
       <c r="G24">
-        <v>0.002516303723203063</v>
+        <v>0.0008012569726345858</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2494583437682749</v>
+        <v>0.1334834301871624</v>
       </c>
       <c r="K24">
-        <v>3.132724149751368</v>
+        <v>7.392666617762757</v>
       </c>
       <c r="L24">
-        <v>0.1601177546859063</v>
+        <v>0.09389522410589279</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.544719762412541</v>
+        <v>2.180191491241033</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.427188402545454</v>
+        <v>0.3447620504041993</v>
       </c>
       <c r="D25">
-        <v>0.1521707568785615</v>
+        <v>0.1588293463025394</v>
       </c>
       <c r="E25">
-        <v>0.1801652511716618</v>
+        <v>0.1178056624017749</v>
       </c>
       <c r="F25">
-        <v>2.150135022035059</v>
+        <v>0.9126646877713256</v>
       </c>
       <c r="G25">
-        <v>0.002522424958301068</v>
+        <v>0.0008113966028523306</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2495712065334175</v>
+        <v>0.1217959985884605</v>
       </c>
       <c r="K25">
-        <v>2.726368114546801</v>
+        <v>6.051957794228883</v>
       </c>
       <c r="L25">
-        <v>0.1585362102998005</v>
+        <v>0.08389574159456714</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.648691243097062</v>
+        <v>2.132294387408734</v>
       </c>
     </row>
   </sheetData>
